--- a/VersionRecords/Version 5.3.1_beta/定时器/新增定时器 (JB组).xlsx
+++ b/VersionRecords/Version 5.3.1_beta/定时器/新增定时器 (JB组).xlsx
@@ -163,10 +163,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>收租提醒</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>王辉</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -219,11 +215,15 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>合同快到期(周三、周日12：00点触)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>合同快到期提醒</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>合同快到期(周三、周日12：00点触)</t>
+    <t>收租提醒</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,13 +318,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -464,7 +457,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -816,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -899,7 +892,7 @@
     </row>
     <row r="2" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
@@ -909,13 +902,13 @@
         <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>18</v>
@@ -948,12 +941,12 @@
         <v>22</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -963,13 +956,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>18</v>
@@ -978,22 +971,22 @@
         <v>19</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>19</v>
@@ -1002,7 +995,7 @@
         <v>22</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
